--- a/boring-stats.xlsx
+++ b/boring-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jav3fh\Programming\baseball-boring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC260BA6-655A-4395-9E57-9943D98BE8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1871E5-33AB-4B6F-8871-63DA88C0EF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E210AC33-DAEC-40AE-AB0F-68D5B36E8994}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Stat</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>gameData.teams.home.record.losses</t>
+  </si>
+  <si>
+    <t>Hit</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,6 +744,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>0</v>
